--- a/Excels/Datable/Sound.xlsx
+++ b/Excels/Datable/Sound.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\DavlmiLauncher\DataTables\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\Work\DEngine\Excels\Datable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C907C3-8B69-4CC2-91A9-1991F0700F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F0898B-665D-437F-BE82-2F077F9D9172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11490" yWindow="7305" windowWidth="22740" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,6 +456,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
